--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_01.20.20.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_01.20.20.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -104,6 +104,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -149,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +171,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -189,8 +200,8 @@
   </sheetPr>
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,10 +275,11 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="b">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -311,10 +323,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="b">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -337,10 +350,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="b">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -363,10 +377,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="b">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -389,10 +404,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -415,10 +431,11 @@
       <c r="F7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="b">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -441,10 +458,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="b">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -467,10 +485,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="b">
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -493,10 +512,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="b">
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -519,10 +539,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="b">
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -545,10 +566,11 @@
       <c r="F12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="b">
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -571,10 +593,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="b">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -597,10 +620,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="b">
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -623,10 +647,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="b">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -649,10 +674,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="b">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -675,10 +701,11 @@
       <c r="F17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="b">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -701,10 +728,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="b">
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -727,10 +755,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="b">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -753,10 +782,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="b">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -779,10 +809,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="b">
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -805,10 +836,11 @@
       <c r="F22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="b">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -831,10 +863,11 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="b">
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -857,10 +890,11 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="b">
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -883,10 +917,11 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="b">
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -909,10 +944,11 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="b">
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -935,10 +971,11 @@
       <c r="F27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="b">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -961,10 +998,11 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="b">
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -987,10 +1025,11 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="b">
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1052,11 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="b">
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,10 +1079,11 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="b">
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1106,11 @@
       <c r="F32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="b">
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1091,10 +1133,11 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="b">
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1117,10 +1160,11 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="4" t="b">
+      <c r="G34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1143,10 +1187,11 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="b">
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1169,10 +1214,11 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="b">
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1195,10 +1241,11 @@
       <c r="F37" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="b">
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,10 +1268,11 @@
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="4" t="b">
+      <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,10 +1295,11 @@
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="4" t="b">
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1273,10 +1322,11 @@
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="b">
+      <c r="G40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1299,10 +1349,11 @@
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4" t="b">
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1325,10 +1376,11 @@
       <c r="F42" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="4" t="b">
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1351,10 +1403,11 @@
       <c r="F43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="4" t="b">
+      <c r="G43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1377,10 +1430,11 @@
       <c r="F44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="4" t="b">
+      <c r="G44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1403,10 +1457,11 @@
       <c r="F45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="4" t="b">
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1429,10 +1484,11 @@
       <c r="F46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="4" t="b">
+      <c r="G46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1455,10 +1511,11 @@
       <c r="F47" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="4" t="b">
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1481,10 +1538,11 @@
       <c r="F48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="4" t="b">
+      <c r="G48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1507,10 +1565,11 @@
       <c r="F49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4" t="b">
+      <c r="G49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1533,10 +1592,11 @@
       <c r="F50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="4" t="b">
+      <c r="G50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1559,10 +1619,11 @@
       <c r="F51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="4" t="b">
+      <c r="G51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1585,10 +1646,11 @@
       <c r="F52" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="4" t="b">
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1611,10 +1673,11 @@
       <c r="F53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="4" t="b">
+      <c r="G53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1637,10 +1700,11 @@
       <c r="F54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="4" t="b">
+      <c r="G54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1663,10 +1727,11 @@
       <c r="F55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="4" t="b">
+      <c r="G55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1689,10 +1754,11 @@
       <c r="F56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="4" t="b">
+      <c r="G56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1715,10 +1781,11 @@
       <c r="F57" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="4" t="b">
+      <c r="G57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_01.20.20.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_01.20.20.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
   </sheetPr>
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
@@ -278,8 +278,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -326,8 +325,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -353,8 +351,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -380,8 +377,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -407,8 +403,7 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -434,8 +429,7 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -461,8 +455,7 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -488,8 +481,7 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -515,8 +507,7 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -542,8 +533,7 @@
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -569,8 +559,7 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -596,8 +585,7 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -623,8 +611,7 @@
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -650,8 +637,7 @@
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -677,8 +663,7 @@
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -704,8 +689,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -731,8 +715,7 @@
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -758,8 +741,7 @@
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -785,8 +767,7 @@
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -812,8 +793,7 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -839,8 +819,7 @@
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -866,8 +845,7 @@
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -893,8 +871,7 @@
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -920,8 +897,7 @@
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -947,8 +923,7 @@
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -974,8 +949,7 @@
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1001,8 +975,7 @@
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1028,8 +1001,7 @@
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1055,8 +1027,7 @@
       <c r="G30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1082,8 +1053,7 @@
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H31" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1109,8 +1079,7 @@
       <c r="G32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H32" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1136,8 +1105,7 @@
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H33" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1163,8 +1131,7 @@
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H34" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1190,8 +1157,7 @@
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H35" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1217,8 +1183,7 @@
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H36" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1244,8 +1209,7 @@
       <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H37" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1271,8 +1235,7 @@
       <c r="G38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H38" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1298,8 +1261,7 @@
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H39" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1325,8 +1287,7 @@
       <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H40" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1352,8 +1313,7 @@
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H41" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1379,8 +1339,7 @@
       <c r="G42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H42" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1406,8 +1365,7 @@
       <c r="G43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H43" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1433,8 +1391,7 @@
       <c r="G44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H44" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1460,8 +1417,7 @@
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H45" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1487,8 +1443,7 @@
       <c r="G46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H46" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1514,8 +1469,7 @@
       <c r="G47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H47" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1541,8 +1495,7 @@
       <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H48" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1568,8 +1521,7 @@
       <c r="G49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H49" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1595,8 +1547,7 @@
       <c r="G50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H50" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1622,8 +1573,7 @@
       <c r="G51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H51" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1649,8 +1599,7 @@
       <c r="G52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H52" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1676,8 +1625,7 @@
       <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H53" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1703,8 +1651,7 @@
       <c r="G54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H54" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1730,8 +1677,7 @@
       <c r="G55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H55" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1757,8 +1703,7 @@
       <c r="G56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H56" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1784,8 +1729,7 @@
       <c r="G57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H57" s="5" t="b">
         <v>0</v>
       </c>
     </row>
